--- a/biology/Botanique/Eucalyptus_forrestiana/Eucalyptus_forrestiana.xlsx
+++ b/biology/Botanique/Eucalyptus_forrestiana/Eucalyptus_forrestiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus forrestiana, l'eucalyptus fuchsia, est une espèce d'eucalyptus que l'on trouve uniquement dans la région d'Esperance en Australie occidentale. Il doit son nom au botaniste écossais George Forrest (1873-1932).
 </t>
@@ -511,7 +523,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Eucalyptus forrestiana subsp. dolichorhyncha Brooker
 Eucalyptus forrestiana subsp. forrestiana</t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un mallee de 1.5 à 6 mètres de haut et de 3 à 3,5 m de large, avec une écorce lisse, des bourgeons d'un rouge brillant, des fleurs jaunes et des fruits rouges qui ressemblent beaucoup à des fleurs de fuchsia d'où son nom.
 </t>
@@ -573,7 +589,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On le retrouve  autour des lacs salés d'Australie Occidentale et sur les plaines sablonneuses entre Ravensthorpe et Cape Arid National Park.
 </t>
